--- a/SeleniumFramework/src/main/java/com/EvaluATTR/TestDataScenarios/book.xlsx
+++ b/SeleniumFramework/src/main/java/com/EvaluATTR/TestDataScenarios/book.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THEJET\eclipse-workspace\EvaluATTRKeywordDriven\src\main\java\com\EvaluATTR\Keyword\scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GANJIJ\git\SeleniumFramework\SeleniumFramework\src\main\java\com\EvaluATTR\TestDataScenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0092DE7-44D3-498E-81DA-1C358F416339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC449B-F8C9-4540-80A8-8AB0AD535E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11250" xr2:uid="{35245E15-8432-4DCB-95E9-0D35944C8B8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>testStep</t>
   </si>
   <si>
-    <t>loactor</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
@@ -75,10 +72,19 @@
     <t>quit</t>
   </si>
   <si>
-    <t>id=confirmbtn</t>
-  </si>
-  <si>
     <t>click</t>
+  </si>
+  <si>
+    <t>LocatorType</t>
+  </si>
+  <si>
+    <t>LocatorValue</t>
+  </si>
+  <si>
+    <t>//button[@id="__BVID__52__BV_toggle_"]</t>
+  </si>
+  <si>
+    <t>xpath</t>
   </si>
 </sst>
 </file>
@@ -446,88 +452,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3869FB4-A098-46DF-9E80-37E5206DF0B0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" customWidth="1"/>
+    <col min="2" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
+      <c r="E5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
